--- a/Code/Results/Cases/Case_3_177/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_177/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.04160608275962</v>
+        <v>21.50357910362046</v>
       </c>
       <c r="C2">
-        <v>13.07843840808558</v>
+        <v>8.498476304270989</v>
       </c>
       <c r="D2">
-        <v>4.110112397957162</v>
+        <v>7.375701638816752</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>30.56708622180543</v>
+        <v>41.42118514932706</v>
       </c>
       <c r="G2">
-        <v>40.77196373983929</v>
+        <v>49.39068229033535</v>
       </c>
       <c r="H2">
-        <v>12.76114202559386</v>
+        <v>19.31818353026877</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.058635017390681</v>
+        <v>10.45979591541273</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.77770981570183</v>
+        <v>11.89794649146415</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.49362254954823</v>
+        <v>21.07558978756189</v>
       </c>
       <c r="C3">
-        <v>12.36162820259501</v>
+        <v>8.141008748767657</v>
       </c>
       <c r="D3">
-        <v>4.053902942399744</v>
+        <v>7.373451566904109</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>29.95514197459613</v>
+        <v>41.47631814205839</v>
       </c>
       <c r="G3">
-        <v>39.58561883477437</v>
+        <v>49.37980865967608</v>
       </c>
       <c r="H3">
-        <v>12.68408766807524</v>
+        <v>19.37319980132258</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.133972265736911</v>
+        <v>10.48781973200847</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.564029068787518</v>
+        <v>11.88644142342564</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.49830272440622</v>
+        <v>20.81268762813189</v>
       </c>
       <c r="C4">
-        <v>11.90131814821604</v>
+        <v>7.911842994097497</v>
       </c>
       <c r="D4">
-        <v>4.019788000609337</v>
+        <v>7.372420464184991</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>29.60932718558967</v>
+        <v>41.52183358724174</v>
       </c>
       <c r="G4">
-        <v>38.89715983508425</v>
+        <v>49.39054011884131</v>
       </c>
       <c r="H4">
-        <v>12.64952432256291</v>
+        <v>19.41131466835402</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.18176516031051</v>
+        <v>10.5059610127194</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.433466674003015</v>
+        <v>11.88103260462438</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.08153503936028</v>
+        <v>20.70567337080461</v>
       </c>
       <c r="C5">
-        <v>11.70872019388502</v>
+        <v>7.816102831235017</v>
       </c>
       <c r="D5">
-        <v>4.005987155915746</v>
+        <v>7.372088892090403</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>29.47580221377882</v>
+        <v>41.54330301736111</v>
       </c>
       <c r="G5">
-        <v>38.62668774246654</v>
+        <v>49.39927563913751</v>
       </c>
       <c r="H5">
-        <v>12.63850761343812</v>
+        <v>19.42793310623301</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.201633629219306</v>
+        <v>10.51358936621194</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.380477353420149</v>
+        <v>11.87924668898688</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.01166103554842</v>
+        <v>20.68791543694826</v>
       </c>
       <c r="C6">
-        <v>11.67643854753443</v>
+        <v>7.800065709398393</v>
       </c>
       <c r="D6">
-        <v>4.003701700876654</v>
+        <v>7.372039200812389</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>29.45407314049281</v>
+        <v>41.54704409281781</v>
       </c>
       <c r="G6">
-        <v>38.58238523462273</v>
+        <v>49.40098912447255</v>
       </c>
       <c r="H6">
-        <v>12.63685955427416</v>
+        <v>19.43075808645267</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.204956660311762</v>
+        <v>10.51487029893845</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.371693242765318</v>
+        <v>11.87897545253141</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.49272707413973</v>
+        <v>20.81124370894981</v>
       </c>
       <c r="C7">
-        <v>11.89874092803213</v>
+        <v>7.910561221746167</v>
       </c>
       <c r="D7">
-        <v>4.019601465453813</v>
+        <v>7.372415633051451</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>29.6074966528349</v>
+        <v>41.52211131856968</v>
       </c>
       <c r="G7">
-        <v>38.89347131747385</v>
+        <v>49.39064028906727</v>
       </c>
       <c r="H7">
-        <v>12.64936350743501</v>
+        <v>19.41153439696541</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.182031516023189</v>
+        <v>10.50606293644946</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.432751091528549</v>
+        <v>11.88100682331229</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.51721999407225</v>
+        <v>21.35612089860948</v>
       </c>
       <c r="C8">
-        <v>12.83549932891315</v>
+        <v>8.377275242172436</v>
       </c>
       <c r="D8">
-        <v>4.090649283362066</v>
+        <v>7.374853370144585</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>30.34980770208438</v>
+        <v>41.43776779261648</v>
       </c>
       <c r="G8">
-        <v>40.35464449589332</v>
+        <v>49.38331224500249</v>
       </c>
       <c r="H8">
-        <v>12.73184550810757</v>
+        <v>19.33625131946078</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.084296497761968</v>
+        <v>10.46926494618317</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.703932207341762</v>
+        <v>11.89363721539454</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.23179460293984</v>
+        <v>22.41733141075207</v>
       </c>
       <c r="C9">
-        <v>14.5109462170157</v>
+        <v>9.21272114974281</v>
       </c>
       <c r="D9">
-        <v>4.233129656999328</v>
+        <v>7.382393586356109</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>32.04770876709539</v>
+        <v>41.36536489230501</v>
       </c>
       <c r="G9">
-        <v>43.53498685097653</v>
+        <v>49.50754843626001</v>
       </c>
       <c r="H9">
-        <v>13.00081803860257</v>
+        <v>19.22317380683806</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.904523159335567</v>
+        <v>10.40449029902848</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.238582817500754</v>
+        <v>11.93144661126954</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.78830542351266</v>
+        <v>23.18435478339092</v>
       </c>
       <c r="C10">
-        <v>15.64308471092178</v>
+        <v>9.774596149766891</v>
       </c>
       <c r="D10">
-        <v>4.339830894334264</v>
+        <v>7.389588650801089</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>33.44886555639615</v>
+        <v>41.36938761489877</v>
       </c>
       <c r="G10">
-        <v>46.06139030602954</v>
+        <v>49.68370635422657</v>
       </c>
       <c r="H10">
-        <v>13.27203545442535</v>
+        <v>19.16136949354679</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.77925702749332</v>
+        <v>10.36136230130177</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.630606980701632</v>
+        <v>11.96704117609955</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.89820684140747</v>
+        <v>23.52892958581267</v>
       </c>
       <c r="C11">
-        <v>16.13697181733777</v>
+        <v>10.01840748863353</v>
       </c>
       <c r="D11">
-        <v>4.388863583544252</v>
+        <v>7.39321544746197</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>34.12096636661645</v>
+        <v>41.38372206486154</v>
       </c>
       <c r="G11">
-        <v>47.25198172419883</v>
+        <v>49.7822667248894</v>
       </c>
       <c r="H11">
-        <v>13.41316094631115</v>
+        <v>19.13791423732228</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.723651777742008</v>
+        <v>10.34270245328982</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.808378677283482</v>
+        <v>11.98489872857164</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.31106167364087</v>
+        <v>23.65866040467784</v>
       </c>
       <c r="C12">
-        <v>16.32100140732172</v>
+        <v>10.10900273748801</v>
       </c>
       <c r="D12">
-        <v>4.40750872315918</v>
+        <v>7.394639161115293</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>34.38058526031819</v>
+        <v>41.39095204562795</v>
       </c>
       <c r="G12">
-        <v>47.7088325194587</v>
+        <v>49.82223025279507</v>
       </c>
       <c r="H12">
-        <v>13.46929948691003</v>
+        <v>19.12970555685449</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.702785607754421</v>
+        <v>10.33577374994888</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.875591869525017</v>
+        <v>11.99189728969107</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.22247368190694</v>
+        <v>23.6307559455052</v>
       </c>
       <c r="C13">
-        <v>16.28149967232145</v>
+        <v>10.08956891188661</v>
       </c>
       <c r="D13">
-        <v>4.403489581799325</v>
+        <v>7.394330309400566</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>34.3244423220187</v>
+        <v>41.38931476200855</v>
       </c>
       <c r="G13">
-        <v>47.61017303440953</v>
+        <v>49.81350612529995</v>
       </c>
       <c r="H13">
-        <v>13.45708672893671</v>
+        <v>19.13144344765189</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.707271175202579</v>
+        <v>10.33725986934713</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.861121276593478</v>
+        <v>11.99037956793554</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.93232061890703</v>
+        <v>23.5396183933096</v>
       </c>
       <c r="C14">
-        <v>16.15217175585778</v>
+        <v>10.02589568512481</v>
       </c>
       <c r="D14">
-        <v>4.390395930997334</v>
+        <v>7.393331571784659</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>34.14222221619433</v>
+        <v>41.38428075313877</v>
       </c>
       <c r="G14">
-        <v>47.28944629754239</v>
+        <v>49.78550168742987</v>
       </c>
       <c r="H14">
-        <v>13.4177245935279</v>
+        <v>19.13722539213323</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.721931337343196</v>
+        <v>10.34212967471501</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.813910562368109</v>
+        <v>11.98546978768127</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.75363047531809</v>
+        <v>23.48369241679649</v>
       </c>
       <c r="C15">
-        <v>16.07256623136946</v>
+        <v>9.986667637595122</v>
       </c>
       <c r="D15">
-        <v>4.382386021076242</v>
+        <v>7.392726353723527</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>34.03127638231364</v>
+        <v>41.38143201024192</v>
       </c>
       <c r="G15">
-        <v>47.09377611546311</v>
+        <v>49.76869174344645</v>
       </c>
       <c r="H15">
-        <v>13.39396979832586</v>
+        <v>19.14085477847008</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.730935656182323</v>
+        <v>10.34513044474255</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.784978373455733</v>
+        <v>11.98249307997379</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.71471871566575</v>
+        <v>23.16173749328734</v>
       </c>
       <c r="C16">
-        <v>15.61038622594199</v>
+        <v>9.758422103683289</v>
       </c>
       <c r="D16">
-        <v>4.336636934151024</v>
+        <v>7.389358702897969</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>33.40565016330928</v>
+        <v>41.36870280297158</v>
       </c>
       <c r="G16">
-        <v>45.98441727509532</v>
+        <v>49.67763532696532</v>
       </c>
       <c r="H16">
-        <v>13.2631820468102</v>
+        <v>19.16299639862488</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.782918034621075</v>
+        <v>10.36260102092148</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.61897560869477</v>
+        <v>11.96590738698931</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.0639172871233</v>
+        <v>22.96302224911496</v>
       </c>
       <c r="C17">
-        <v>15.32146819154529</v>
+        <v>9.61535421215571</v>
       </c>
       <c r="D17">
-        <v>4.308701749015232</v>
+        <v>7.387382973189148</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>33.03081534603228</v>
+        <v>41.3640997246087</v>
       </c>
       <c r="G17">
-        <v>45.3144655341171</v>
+        <v>49.62648957637532</v>
       </c>
       <c r="H17">
-        <v>13.18759602315298</v>
+        <v>19.17777542500946</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.815155137950513</v>
+        <v>10.37356394503437</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.516974463906124</v>
+        <v>11.95615694362694</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.68458593924514</v>
+        <v>22.84832436928253</v>
       </c>
       <c r="C18">
-        <v>15.15329786592129</v>
+        <v>9.531957472391536</v>
       </c>
       <c r="D18">
-        <v>4.292680125769834</v>
+        <v>7.386279912843633</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>32.81847903574005</v>
+        <v>41.36262902415845</v>
       </c>
       <c r="G18">
-        <v>44.9330091199877</v>
+        <v>49.59880697306212</v>
       </c>
       <c r="H18">
-        <v>13.14578259987804</v>
+        <v>19.18671435432103</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.833827351747586</v>
+        <v>10.37995985606823</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.458254152167047</v>
+        <v>11.95070570565116</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.55528532342544</v>
+        <v>22.80942456354814</v>
       </c>
       <c r="C19">
-        <v>15.09601503550658</v>
+        <v>9.503531679233062</v>
       </c>
       <c r="D19">
-        <v>4.28726321047179</v>
+        <v>7.385912175901703</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>32.7471420680079</v>
+        <v>41.36233305755718</v>
       </c>
       <c r="G19">
-        <v>44.80452055624979</v>
+        <v>49.58973231092683</v>
       </c>
       <c r="H19">
-        <v>13.13190630384237</v>
+        <v>19.18981612014025</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.840172057359943</v>
+        <v>10.38214093282897</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.438364415106083</v>
+        <v>11.94888706205603</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.13371315879349</v>
+        <v>22.98421838837214</v>
       </c>
       <c r="C20">
-        <v>15.35242994161313</v>
+        <v>9.630698971635224</v>
       </c>
       <c r="D20">
-        <v>4.311670700869518</v>
+        <v>7.387589847635819</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>33.07037910111886</v>
+        <v>41.36446789680458</v>
       </c>
       <c r="G20">
-        <v>45.38538104363649</v>
+        <v>49.63175460360269</v>
       </c>
       <c r="H20">
-        <v>13.19546926627227</v>
+        <v>19.17615677328181</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.811710016154793</v>
+        <v>10.37238757870718</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.527838238809879</v>
+        <v>11.95717867280377</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.01774593006531</v>
+        <v>23.56640908959456</v>
       </c>
       <c r="C21">
-        <v>16.19023935078246</v>
+        <v>10.0446452832824</v>
       </c>
       <c r="D21">
-        <v>4.394239686032234</v>
+        <v>7.393623563785304</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>34.19560496229985</v>
+        <v>41.38571044123375</v>
       </c>
       <c r="G21">
-        <v>47.38348788569299</v>
+        <v>49.79365568909402</v>
       </c>
       <c r="H21">
-        <v>13.42921182530092</v>
+        <v>19.13550879643562</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.717620191502071</v>
+        <v>10.34069557099253</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.827780497417201</v>
+        <v>11.98690552258528</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.20580290011469</v>
+        <v>23.94246660962553</v>
       </c>
       <c r="C22">
-        <v>16.7203720630878</v>
+        <v>10.30508218459134</v>
       </c>
       <c r="D22">
-        <v>4.448659941137615</v>
+        <v>7.397860019935139</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>34.96085816829325</v>
+        <v>41.41009665273576</v>
       </c>
       <c r="G22">
-        <v>48.72441548424183</v>
+        <v>49.91485313644519</v>
       </c>
       <c r="H22">
-        <v>13.59776889821063</v>
+        <v>19.11286895830432</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.6572325777034</v>
+        <v>10.32078348493419</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.023192385787535</v>
+        <v>12.00770942378324</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.57560530283149</v>
+        <v>23.74220365428754</v>
       </c>
       <c r="C23">
-        <v>16.43900607605767</v>
+        <v>10.1670165986759</v>
       </c>
       <c r="D23">
-        <v>4.419570260289529</v>
+        <v>7.395572307710896</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>34.54965071701712</v>
+        <v>41.39611946914986</v>
       </c>
       <c r="G23">
-        <v>48.0054925957694</v>
+        <v>49.84876400957733</v>
       </c>
       <c r="H23">
-        <v>13.50631274052502</v>
+        <v>19.12459202077644</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.689364122711149</v>
+        <v>10.33133788328474</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.918959714264378</v>
+        <v>11.99648121763823</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.10217458436489</v>
+        <v>22.9746370176768</v>
       </c>
       <c r="C24">
-        <v>15.33843857729843</v>
+        <v>9.623765169904971</v>
       </c>
       <c r="D24">
-        <v>4.310328317694615</v>
+        <v>7.387496217463379</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>33.05248248949247</v>
+        <v>41.36429778434017</v>
       </c>
       <c r="G24">
-        <v>45.35330859633392</v>
+        <v>49.62936892105022</v>
       </c>
       <c r="H24">
-        <v>13.19190466957997</v>
+        <v>19.17688718832066</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.813267123182581</v>
+        <v>10.37291912363403</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.522926968720199</v>
+        <v>11.95671626780775</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.24211913176045</v>
+        <v>22.13189551711581</v>
       </c>
       <c r="C25">
-        <v>14.07509204263117</v>
+        <v>8.995626346698158</v>
       </c>
       <c r="D25">
-        <v>4.194241974603201</v>
+        <v>7.38006108130599</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>31.56180321786871</v>
+        <v>41.37493575418834</v>
       </c>
       <c r="G25">
-        <v>42.64117495896561</v>
+        <v>49.45904360851442</v>
       </c>
       <c r="H25">
-        <v>12.9157207476881</v>
+        <v>19.25004291800042</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.951927982182708</v>
+        <v>10.42122706520004</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.093923252286414</v>
+        <v>11.91983508806199</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_177/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_177/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.50357910362046</v>
+        <v>24.0416060827596</v>
       </c>
       <c r="C2">
-        <v>8.498476304270989</v>
+        <v>13.07843840808566</v>
       </c>
       <c r="D2">
-        <v>7.375701638816752</v>
+        <v>4.110112397957052</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>41.42118514932706</v>
+        <v>30.56708622180541</v>
       </c>
       <c r="G2">
-        <v>49.39068229033535</v>
+        <v>40.77196373983929</v>
       </c>
       <c r="H2">
-        <v>19.31818353026877</v>
+        <v>12.76114202559387</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.45979591541273</v>
+        <v>6.058635017390652</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>11.89794649146415</v>
+        <v>7.777709815701804</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.07558978756189</v>
+        <v>22.49362254954822</v>
       </c>
       <c r="C3">
-        <v>8.141008748767657</v>
+        <v>12.36162820259498</v>
       </c>
       <c r="D3">
-        <v>7.373451566904109</v>
+        <v>4.05390294239962</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>41.47631814205839</v>
+        <v>29.95514197459598</v>
       </c>
       <c r="G3">
-        <v>49.37980865967608</v>
+        <v>39.58561883477429</v>
       </c>
       <c r="H3">
-        <v>19.37319980132258</v>
+        <v>12.6840876680752</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.48781973200847</v>
+        <v>6.13397226573688</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>11.88644142342564</v>
+        <v>7.564029068787516</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.81268762813189</v>
+        <v>21.49830272440623</v>
       </c>
       <c r="C4">
-        <v>7.911842994097497</v>
+        <v>11.90131814821615</v>
       </c>
       <c r="D4">
-        <v>7.372420464184991</v>
+        <v>4.01978800060933</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>41.52183358724174</v>
+        <v>29.60932718558955</v>
       </c>
       <c r="G4">
-        <v>49.39054011884131</v>
+        <v>38.89715983508409</v>
       </c>
       <c r="H4">
-        <v>19.41131466835402</v>
+        <v>12.64952432256282</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.5059610127194</v>
+        <v>6.181765160310511</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.88103260462438</v>
+        <v>7.43346667400299</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.70567337080461</v>
+        <v>21.0815350393603</v>
       </c>
       <c r="C5">
-        <v>7.816102831235017</v>
+        <v>11.70872019388529</v>
       </c>
       <c r="D5">
-        <v>7.372088892090403</v>
+        <v>4.005987155915803</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>41.54330301736111</v>
+        <v>29.47580221377882</v>
       </c>
       <c r="G5">
-        <v>49.39927563913751</v>
+        <v>38.62668774246649</v>
       </c>
       <c r="H5">
-        <v>19.42793310623301</v>
+        <v>12.63850761343812</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.51358936621194</v>
+        <v>6.201633629219434</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.87924668898688</v>
+        <v>7.380477353420162</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.68791543694826</v>
+        <v>21.01166103554843</v>
       </c>
       <c r="C6">
-        <v>7.800065709398393</v>
+        <v>11.67643854753442</v>
       </c>
       <c r="D6">
-        <v>7.372039200812389</v>
+        <v>4.003701700876597</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>41.54704409281781</v>
+        <v>29.45407314049279</v>
       </c>
       <c r="G6">
-        <v>49.40098912447255</v>
+        <v>38.58238523462267</v>
       </c>
       <c r="H6">
-        <v>19.43075808645267</v>
+        <v>12.63685955427416</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.51487029893845</v>
+        <v>6.204956660311828</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.87897545253141</v>
+        <v>7.371693242765367</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.81124370894981</v>
+        <v>21.49272707413973</v>
       </c>
       <c r="C7">
-        <v>7.910561221746167</v>
+        <v>11.89874092803213</v>
       </c>
       <c r="D7">
-        <v>7.372415633051451</v>
+        <v>4.019601465453883</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>41.52211131856968</v>
+        <v>29.60749665283476</v>
       </c>
       <c r="G7">
-        <v>49.39064028906727</v>
+        <v>38.89347131747375</v>
       </c>
       <c r="H7">
-        <v>19.41153439696541</v>
+        <v>12.64936350743489</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.50606293644946</v>
+        <v>6.182031516023151</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.88100682331229</v>
+        <v>7.432751091528552</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.35612089860948</v>
+        <v>23.51721999407224</v>
       </c>
       <c r="C8">
-        <v>8.377275242172436</v>
+        <v>12.83549932891347</v>
       </c>
       <c r="D8">
-        <v>7.374853370144585</v>
+        <v>4.090649283362128</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>41.43776779261648</v>
+        <v>30.34980770208443</v>
       </c>
       <c r="G8">
-        <v>49.38331224500249</v>
+        <v>40.35464449589346</v>
       </c>
       <c r="H8">
-        <v>19.33625131946078</v>
+        <v>12.73184550810759</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.46926494618317</v>
+        <v>6.084296497761968</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.89363721539454</v>
+        <v>7.703932207341703</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.41733141075207</v>
+        <v>27.23179460293979</v>
       </c>
       <c r="C9">
-        <v>9.21272114974281</v>
+        <v>14.51094621701584</v>
       </c>
       <c r="D9">
-        <v>7.382393586356109</v>
+        <v>4.233129656999338</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>41.36536489230501</v>
+        <v>32.04770876709546</v>
       </c>
       <c r="G9">
-        <v>49.50754843626001</v>
+        <v>43.53498685097656</v>
       </c>
       <c r="H9">
-        <v>19.22317380683806</v>
+        <v>13.00081803860266</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.40449029902848</v>
+        <v>5.904523159335602</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11.93144661126954</v>
+        <v>8.23858281750077</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.18435478339092</v>
+        <v>29.78830542351269</v>
       </c>
       <c r="C10">
-        <v>9.774596149766891</v>
+        <v>15.64308471092195</v>
       </c>
       <c r="D10">
-        <v>7.389588650801089</v>
+        <v>4.339830894334209</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>41.36938761489877</v>
+        <v>33.44886555639607</v>
       </c>
       <c r="G10">
-        <v>49.68370635422657</v>
+        <v>46.06139030602939</v>
       </c>
       <c r="H10">
-        <v>19.16136949354679</v>
+        <v>13.2720354544253</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.36136230130177</v>
+        <v>5.779257027493444</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.96704117609955</v>
+        <v>8.630606980701678</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.52892958581267</v>
+        <v>30.89820684140747</v>
       </c>
       <c r="C11">
-        <v>10.01840748863353</v>
+        <v>16.13697181733778</v>
       </c>
       <c r="D11">
-        <v>7.39321544746197</v>
+        <v>4.388863583544198</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>41.38372206486154</v>
+        <v>34.1209663666165</v>
       </c>
       <c r="G11">
-        <v>49.7822667248894</v>
+        <v>47.25198172419894</v>
       </c>
       <c r="H11">
-        <v>19.13791423732228</v>
+        <v>13.41316094631119</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.34270245328982</v>
+        <v>5.723651777742007</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.98489872857164</v>
+        <v>8.808378677283429</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.65866040467784</v>
+        <v>31.3110616736409</v>
       </c>
       <c r="C12">
-        <v>10.10900273748801</v>
+        <v>16.32100140732177</v>
       </c>
       <c r="D12">
-        <v>7.394639161115293</v>
+        <v>4.407508723159278</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>41.39095204562795</v>
+        <v>34.38058526031818</v>
       </c>
       <c r="G12">
-        <v>49.82223025279507</v>
+        <v>47.70883251945865</v>
       </c>
       <c r="H12">
-        <v>19.12970555685449</v>
+        <v>13.46929948691001</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.33577374994888</v>
+        <v>5.702785607754331</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>11.99189728969107</v>
+        <v>8.875591869524959</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.6307559455052</v>
+        <v>31.222473681907</v>
       </c>
       <c r="C13">
-        <v>10.08956891188661</v>
+        <v>16.28149967232134</v>
       </c>
       <c r="D13">
-        <v>7.394330309400566</v>
+        <v>4.40348958179935</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>41.38931476200855</v>
+        <v>34.32444232201857</v>
       </c>
       <c r="G13">
-        <v>49.81350612529995</v>
+        <v>47.61017303440941</v>
       </c>
       <c r="H13">
-        <v>19.13144344765189</v>
+        <v>13.45708672893663</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.33725986934713</v>
+        <v>5.707271175202638</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>11.99037956793554</v>
+        <v>8.861121276593522</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.5396183933096</v>
+        <v>30.93232061890708</v>
       </c>
       <c r="C14">
-        <v>10.02589568512481</v>
+        <v>16.15217175585791</v>
       </c>
       <c r="D14">
-        <v>7.393331571784659</v>
+        <v>4.390395930997442</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>41.38428075313877</v>
+        <v>34.14222221619429</v>
       </c>
       <c r="G14">
-        <v>49.78550168742987</v>
+        <v>47.28944629754246</v>
       </c>
       <c r="H14">
-        <v>19.13722539213323</v>
+        <v>13.41772459352787</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.34212967471501</v>
+        <v>5.721931337343166</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.98546978768127</v>
+        <v>8.813910562368052</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.48369241679649</v>
+        <v>30.75363047531813</v>
       </c>
       <c r="C15">
-        <v>9.986667637595122</v>
+        <v>16.07256623136946</v>
       </c>
       <c r="D15">
-        <v>7.392726353723527</v>
+        <v>4.382386021076346</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>41.38143201024192</v>
+        <v>34.03127638231368</v>
       </c>
       <c r="G15">
-        <v>49.76869174344645</v>
+        <v>47.09377611546322</v>
       </c>
       <c r="H15">
-        <v>19.14085477847008</v>
+        <v>13.39396979832584</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.34513044474255</v>
+        <v>5.730935656182357</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.98249307997379</v>
+        <v>8.784978373455759</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.16173749328734</v>
+        <v>29.71471871566572</v>
       </c>
       <c r="C16">
-        <v>9.758422103683289</v>
+        <v>15.61038622594175</v>
       </c>
       <c r="D16">
-        <v>7.389358702897969</v>
+        <v>4.336636934150906</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>41.36870280297158</v>
+        <v>33.40565016330942</v>
       </c>
       <c r="G16">
-        <v>49.67763532696532</v>
+        <v>45.98441727509555</v>
       </c>
       <c r="H16">
-        <v>19.16299639862488</v>
+        <v>13.26318204681025</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.36260102092148</v>
+        <v>5.782918034621203</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.96590738698931</v>
+        <v>8.618975608694809</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.96302224911496</v>
+        <v>29.06391728712333</v>
       </c>
       <c r="C17">
-        <v>9.61535421215571</v>
+        <v>15.32146819154519</v>
       </c>
       <c r="D17">
-        <v>7.387382973189148</v>
+        <v>4.308701749015176</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>41.3640997246087</v>
+        <v>33.03081534603219</v>
       </c>
       <c r="G17">
-        <v>49.62648957637532</v>
+        <v>45.31446553411709</v>
       </c>
       <c r="H17">
-        <v>19.17777542500946</v>
+        <v>13.18759602315287</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.37356394503437</v>
+        <v>5.815155137950575</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.95615694362694</v>
+        <v>8.516974463906186</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.84832436928253</v>
+        <v>28.68458593924514</v>
       </c>
       <c r="C18">
-        <v>9.531957472391536</v>
+        <v>15.1532978659213</v>
       </c>
       <c r="D18">
-        <v>7.386279912843633</v>
+        <v>4.292680125769714</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>41.36262902415845</v>
+        <v>32.81847903574003</v>
       </c>
       <c r="G18">
-        <v>49.59880697306212</v>
+        <v>44.93300911998773</v>
       </c>
       <c r="H18">
-        <v>19.18671435432103</v>
+        <v>13.14578259987804</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.37995985606823</v>
+        <v>5.833827351747653</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.95070570565116</v>
+        <v>8.458254152167047</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.80942456354814</v>
+        <v>28.55528532342553</v>
       </c>
       <c r="C19">
-        <v>9.503531679233062</v>
+        <v>15.09601503550641</v>
       </c>
       <c r="D19">
-        <v>7.385912175901703</v>
+        <v>4.287263210471888</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>41.36233305755718</v>
+        <v>32.74714206800786</v>
       </c>
       <c r="G19">
-        <v>49.58973231092683</v>
+        <v>44.80452055624977</v>
       </c>
       <c r="H19">
-        <v>19.18981612014025</v>
+        <v>13.13190630384234</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.38214093282897</v>
+        <v>5.840172057359975</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.94888706205603</v>
+        <v>8.438364415106129</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.98421838837214</v>
+        <v>29.13371315879346</v>
       </c>
       <c r="C20">
-        <v>9.630698971635224</v>
+        <v>15.35242994161322</v>
       </c>
       <c r="D20">
-        <v>7.387589847635819</v>
+        <v>4.311670700869711</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>41.36446789680458</v>
+        <v>33.07037910111895</v>
       </c>
       <c r="G20">
-        <v>49.63175460360269</v>
+        <v>45.38538104363658</v>
       </c>
       <c r="H20">
-        <v>19.17615677328181</v>
+        <v>13.1954692662723</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.37238757870718</v>
+        <v>5.811710016154891</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.95717867280377</v>
+        <v>8.527838238809984</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.56640908959456</v>
+        <v>31.01774593006527</v>
       </c>
       <c r="C21">
-        <v>10.0446452832824</v>
+        <v>16.19023935078268</v>
       </c>
       <c r="D21">
-        <v>7.393623563785304</v>
+        <v>4.394239686032185</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>41.38571044123375</v>
+        <v>34.19560496229993</v>
       </c>
       <c r="G21">
-        <v>49.79365568909402</v>
+        <v>47.38348788569316</v>
       </c>
       <c r="H21">
-        <v>19.13550879643562</v>
+        <v>13.42921182530094</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.34069557099253</v>
+        <v>5.717620191502166</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>11.98690552258528</v>
+        <v>8.827780497417207</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.94246660962553</v>
+        <v>32.20580290011475</v>
       </c>
       <c r="C22">
-        <v>10.30508218459134</v>
+        <v>16.72037206308755</v>
       </c>
       <c r="D22">
-        <v>7.397860019935139</v>
+        <v>4.448659941137517</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>41.41009665273576</v>
+        <v>34.96085816829319</v>
       </c>
       <c r="G22">
-        <v>49.91485313644519</v>
+        <v>48.7244154842418</v>
       </c>
       <c r="H22">
-        <v>19.11286895830432</v>
+        <v>13.59776889821055</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.32078348493419</v>
+        <v>5.65723257770331</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.00770942378324</v>
+        <v>9.023192385787569</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.74220365428754</v>
+        <v>31.57560530283152</v>
       </c>
       <c r="C23">
-        <v>10.1670165986759</v>
+        <v>16.43900607605761</v>
       </c>
       <c r="D23">
-        <v>7.395572307710896</v>
+        <v>4.419570260289679</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>41.39611946914986</v>
+        <v>34.5496507170171</v>
       </c>
       <c r="G23">
-        <v>49.84876400957733</v>
+        <v>48.0054925957693</v>
       </c>
       <c r="H23">
-        <v>19.12459202077644</v>
+        <v>13.50631274052502</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.33133788328474</v>
+        <v>5.689364122711214</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>11.99648121763823</v>
+        <v>8.918959714264449</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.9746370176768</v>
+        <v>29.10217458436493</v>
       </c>
       <c r="C24">
-        <v>9.623765169904971</v>
+        <v>15.33843857729868</v>
       </c>
       <c r="D24">
-        <v>7.387496217463379</v>
+        <v>4.310328317694746</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>41.36429778434017</v>
+        <v>33.05248248949241</v>
       </c>
       <c r="G24">
-        <v>49.62936892105022</v>
+        <v>45.35330859633381</v>
       </c>
       <c r="H24">
-        <v>19.17688718832066</v>
+        <v>13.19190466957992</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.37291912363403</v>
+        <v>5.813267123182551</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.95671626780775</v>
+        <v>8.522926968720192</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.13189551711581</v>
+        <v>26.24211913176037</v>
       </c>
       <c r="C25">
-        <v>8.995626346698158</v>
+        <v>14.07509204263134</v>
       </c>
       <c r="D25">
-        <v>7.38006108130599</v>
+        <v>4.194241974603026</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>41.37493575418834</v>
+        <v>31.56180321786865</v>
       </c>
       <c r="G25">
-        <v>49.45904360851442</v>
+        <v>42.64117495896555</v>
       </c>
       <c r="H25">
-        <v>19.25004291800042</v>
+        <v>12.91572074768808</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.42122706520004</v>
+        <v>5.951927982182705</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>11.91983508806199</v>
+        <v>8.093923252286315</v>
       </c>
       <c r="M25">
         <v>0</v>
